--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44291</v>
+        <v>44350</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -504,13 +504,13 @@
         <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L3" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44350</v>
+        <v>44273</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44350</v>
+        <v>44273</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44273</v>
+        <v>44350</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44291</v>
+        <v>44350</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -576,13 +576,13 @@
         <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44350</v>
+        <v>44273</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44291</v>
+        <v>44273</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44350</v>
+        <v>44291</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -576,13 +576,13 @@
         <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44273</v>
+        <v>44350</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44291</v>
+        <v>44273</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44291</v>
+        <v>44273</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L3" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44291</v>
+        <v>44350</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -576,13 +576,13 @@
         <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44350</v>
+        <v>44291</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -648,13 +648,13 @@
         <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44273</v>
+        <v>44350</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44350</v>
+        <v>44291</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -576,13 +576,13 @@
         <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44291</v>
+        <v>44273</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44350</v>
+        <v>44291</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -504,13 +504,13 @@
         <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44291</v>
+        <v>44350</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -576,13 +576,13 @@
         <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44291</v>
+        <v>44273</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44291</v>
+        <v>44273</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44350</v>
+        <v>44273</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44291</v>
+        <v>44350</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -576,13 +576,13 @@
         <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44291</v>
+        <v>44350</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -504,13 +504,13 @@
         <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44350</v>
+        <v>44291</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -576,13 +576,13 @@
         <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44273</v>
+        <v>44350</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44350</v>
+        <v>44273</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44291</v>
+        <v>44273</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44350</v>
+        <v>44291</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -504,13 +504,13 @@
         <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M2" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44273</v>
+        <v>44350</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44291</v>
+        <v>44273</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44291</v>
+        <v>44350</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -504,13 +504,13 @@
         <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M2" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44350</v>
+        <v>44273</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44350</v>
+        <v>44273</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L3" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M3" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44291</v>
+        <v>44350</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -648,13 +648,13 @@
         <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M4" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="n">
         <v>60</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Pepino ensalada.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44350</v>
+        <v>44273</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44273</v>
+        <v>44350</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L3" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M3" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="n">
         <v>60</v>
